--- a/lab6/lab6.xlsx
+++ b/lab6/lab6.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francis\Dropbox\Ecole\Universite\S5\TOEM\Lab\git\lab6\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14220" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14220" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>lab 6</t>
   </si>
@@ -30,9 +36,6 @@
     <t>Reference</t>
   </si>
   <si>
-    <t>dB</t>
-  </si>
-  <si>
     <t>db</t>
   </si>
   <si>
@@ -70,6 +73,24 @@
   </si>
   <si>
     <t>Partie 4</t>
+  </si>
+  <si>
+    <t>Affaiblissement (Lecture ROS-Mètre) [dB]</t>
+  </si>
+  <si>
+    <t>Affaiblissement réel [dB]</t>
+  </si>
+  <si>
+    <t>Position [mm]</t>
+  </si>
+  <si>
+    <t>$d_min$ [mm]</t>
+  </si>
+  <si>
+    <t>Longueur d'onde $\lamda_f$ [m]</t>
+  </si>
+  <si>
+    <t>Vitesse de propagation [$\frac{m}{s}$]</t>
   </si>
 </sst>
 </file>
@@ -137,6 +158,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -147,13 +176,68 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1600"/>
+              <a:t>Affaiblissement de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-CA" sz="1600" baseline="0"/>
+              <a:t> l'affaiblisseur réglable en fonction de la position de la bande longitudinale</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CA" sz="1600"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -163,31 +247,30 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625" cap="rnd" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.165154262568141"/>
-                  <c:y val="-0.00354569315199236"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$16</c:f>
+              <c:f>Sheet1!$P$8:$P$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.25</c:v>
@@ -199,7 +282,7 @@
                   <c:v>0.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.25</c:v>
@@ -211,7 +294,7 @@
                   <c:v>1.75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2.25</c:v>
@@ -223,7 +306,7 @@
                   <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -235,43 +318,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.800000000000004</c:v>
+                  <c:v>-0.80000000000000426</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.100000000000001</c:v>
+                  <c:v>-1.1000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>-1.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-2.700000000000003</c:v>
+                  <c:v>-2.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.700000000000003</c:v>
+                  <c:v>-3.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.950000000000003</c:v>
+                  <c:v>-4.9500000000000028</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-6.200000000000003</c:v>
+                  <c:v>-6.2000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-7.700000000000003</c:v>
+                  <c:v>-7.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.900000000000005</c:v>
+                  <c:v>-9.9000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-11.6</c:v>
+                  <c:v>-11.600000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-13.2</c:v>
+                  <c:v>-13.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-14.7</c:v>
+                  <c:v>-14.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-15.90000000000001</c:v>
+                  <c:v>-15.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -286,77 +369,763 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="602940024"/>
-        <c:axId val="669058936"/>
+        <c:axId val="1045047008"/>
+        <c:axId val="1045053536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="602940024"/>
+        <c:axId val="1045047008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Position de la bande longitudinale (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="669058936"/>
-        <c:crosses val="autoZero"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045053536"/>
+        <c:crossesAt val="-18"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="669058936"/>
+        <c:axId val="1045053536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:tint val="75000"/>
+                  <a:shade val="95000"/>
+                  <a:satMod val="105000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CA"/>
+                  <a:t>Affaiblissement</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fr-CA" baseline="0"/>
+                  <a:t> (dB)</a:t>
+                </a:r>
+                <a:endParaRPr lang="fr-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fr-FR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602940024"/>
-        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:tint val="75000"/>
+                <a:shade val="95000"/>
+                <a:satMod val="105000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1045047008"/>
+        <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:tint val="75000"/>
+          <a:shade val="95000"/>
+          <a:satMod val="105000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:prstDash val="solid"/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent5"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="118">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:lineWidthScale>5</cs:lineWidthScale>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <a:schemeClr val="dk1">
+        <a:tint val="95000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="2">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="50000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <a:schemeClr val="bg1"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln cap="rnd">
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <a:schemeClr val="dk1">
+        <a:tint val="5000"/>
+      </a:schemeClr>
+    </cs:fillRef>
+    <cs:effectRef idx="2">
+      <a:schemeClr val="dk1"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="1">
+      <a:schemeClr val="tx1">
+        <a:tint val="75000"/>
+      </a:schemeClr>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Chart1"/>
+  <sheetViews>
+    <sheetView zoomScale="142" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9310352" cy="6077218"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -369,7 +1138,7 @@
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
 </file>
 
@@ -695,285 +1464,383 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:R63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f>Q8-$Q$7</f>
+        <v>-0.80000000000000426</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f>Q9-$Q$7</f>
+        <v>-1.1000000000000014</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f>Q10-$Q$7</f>
+        <v>-1.75</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>16</v>
+      </c>
+      <c r="R6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f>Q11-$Q$7</f>
+        <v>-2.7000000000000028</v>
+      </c>
+      <c r="P7" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="Q7">
         <v>-40.799999999999997</v>
       </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="R7">
         <v>0</v>
       </c>
-      <c r="B4">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f>Q12-$Q$7</f>
+        <v>-3.7000000000000028</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>-41.6</v>
       </c>
-      <c r="E4">
-        <f>B4-$B$3</f>
+      <c r="R8">
+        <f>Q8-$Q$7</f>
         <v>-0.80000000000000426</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>Q13-$Q$7</f>
+        <v>-4.9500000000000028</v>
+      </c>
+      <c r="P9">
         <v>0.25</v>
       </c>
-      <c r="B5">
+      <c r="Q9">
         <v>-41.9</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E16" si="0">B5-$B$3</f>
+      <c r="R9">
+        <f t="shared" ref="R9:R20" si="0">Q9-$Q$7</f>
         <v>-1.1000000000000014</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>Q14-$Q$7</f>
+        <v>-6.2000000000000028</v>
+      </c>
+      <c r="P10">
         <v>0.5</v>
       </c>
-      <c r="B6">
+      <c r="Q10">
         <v>-42.55</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6">
+      <c r="R10">
         <f t="shared" si="0"/>
         <v>-1.75</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E11">
+        <f>Q15-$Q$7</f>
+        <v>-7.7000000000000028</v>
+      </c>
+      <c r="P11">
         <v>0.75</v>
       </c>
-      <c r="B7">
+      <c r="Q11">
         <v>-43.5</v>
       </c>
-      <c r="E7">
+      <c r="R11">
         <f t="shared" si="0"/>
         <v>-2.7000000000000028</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E12">
+        <f>Q16-$Q$7</f>
+        <v>-9.9000000000000057</v>
+      </c>
+      <c r="P12">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="Q12">
         <v>-44.5</v>
       </c>
-      <c r="E8">
+      <c r="R12">
         <f t="shared" si="0"/>
         <v>-3.7000000000000028</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <f>Q17-$Q$7</f>
+        <v>-11.600000000000001</v>
+      </c>
+      <c r="P13">
         <v>1.25</v>
       </c>
-      <c r="B9">
+      <c r="Q13">
         <v>-45.75</v>
       </c>
-      <c r="E9">
+      <c r="R13">
         <f t="shared" si="0"/>
         <v>-4.9500000000000028</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E14">
+        <f>Q18-$Q$7</f>
+        <v>-13.200000000000003</v>
+      </c>
+      <c r="P14">
         <v>1.5</v>
       </c>
-      <c r="B10">
+      <c r="Q14">
         <v>-47</v>
       </c>
-      <c r="E10">
+      <c r="R14">
         <f t="shared" si="0"/>
         <v>-6.2000000000000028</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <f>Q19-$Q$7</f>
+        <v>-14.700000000000003</v>
+      </c>
+      <c r="P15">
         <v>1.75</v>
       </c>
-      <c r="B11">
+      <c r="Q15">
         <v>-48.5</v>
       </c>
-      <c r="E11">
+      <c r="R15">
         <f t="shared" si="0"/>
         <v>-7.7000000000000028</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f>Q20-$Q$7</f>
+        <v>-15.900000000000006</v>
+      </c>
+      <c r="P16">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="Q16">
         <v>-50.7</v>
       </c>
-      <c r="E12">
+      <c r="R16">
         <f t="shared" si="0"/>
         <v>-9.9000000000000057</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="P17">
         <v>2.25</v>
       </c>
-      <c r="B13">
+      <c r="Q17">
         <v>-52.4</v>
       </c>
-      <c r="E13">
+      <c r="R17">
         <f t="shared" si="0"/>
         <v>-11.600000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18">
         <v>2.5</v>
       </c>
-      <c r="B14">
+      <c r="Q18">
         <v>-54</v>
       </c>
-      <c r="E14">
+      <c r="R18">
         <f t="shared" si="0"/>
         <v>-13.200000000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" t="s">
+        <v>3</v>
+      </c>
+      <c r="P19">
         <v>2.75</v>
       </c>
-      <c r="B15">
+      <c r="Q19">
         <v>-55.5</v>
       </c>
-      <c r="E15">
+      <c r="R19">
         <f t="shared" si="0"/>
         <v>-14.700000000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>-56</v>
+      </c>
+      <c r="P20">
         <v>3</v>
       </c>
-      <c r="B16">
+      <c r="Q20">
         <v>-56.7</v>
       </c>
-      <c r="E16">
+      <c r="R20">
         <f t="shared" si="0"/>
         <v>-15.900000000000006</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>46</v>
+      </c>
+      <c r="B21">
+        <f>2*(A21-A20)*10^(-3)</f>
+        <v>0.02</v>
+      </c>
+      <c r="C21">
+        <f>10.1</f>
+        <v>10.1</v>
+      </c>
+      <c r="F21">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>56</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ref="B22:B27" si="1">2*(A22-A21)*10^(-3)</f>
+        <v>0.02</v>
+      </c>
+      <c r="F22">
+        <v>-58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>66</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F23">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>76</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0.02</v>
+      </c>
+      <c r="F24">
+        <v>-55.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>87</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="F25">
+        <v>-59.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>97.5</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F26">
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>107.8</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>2.0599999999999993E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
         <v>6</v>
       </c>
-      <c r="B19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>56</v>
-      </c>
-      <c r="C20">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>66</v>
-      </c>
-      <c r="C21">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>76</v>
-      </c>
-      <c r="C22">
-        <v>-58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>87</v>
-      </c>
-      <c r="C23">
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
-        <v>97.5</v>
-      </c>
-      <c r="C24">
-        <v>-55.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
-        <v>107.8</v>
-      </c>
-      <c r="C25">
-        <v>-59.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
-        <v>46</v>
-      </c>
-      <c r="C26">
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>8</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
-        <v>9</v>
       </c>
       <c r="B31">
         <v>39</v>
@@ -982,9 +1849,9 @@
         <v>-53.5</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B32">
         <v>44</v>
@@ -993,9 +1860,9 @@
         <v>-54.4</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34">
         <v>48.2</v>
@@ -1004,7 +1871,7 @@
         <v>-53</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F34">
         <v>60</v>
@@ -1013,9 +1880,9 @@
         <v>-52.9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35">
         <v>54</v>
@@ -1024,7 +1891,7 @@
         <v>-55.5</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>65.7</v>
@@ -1033,19 +1900,19 @@
         <v>-55.5</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>11</v>
       </c>
       <c r="B40">
         <v>59</v>
@@ -1054,9 +1921,9 @@
         <v>-57.2</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B41">
         <v>66.099999999999994</v>
@@ -1065,14 +1932,14 @@
         <v>-51.1</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B44">
         <v>38</v>
@@ -1081,9 +1948,9 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>56</v>
@@ -1092,24 +1959,24 @@
         <v>-53.25</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B53">
         <v>36</v>
@@ -1118,9 +1985,9 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54">
         <v>44</v>
@@ -1129,9 +1996,9 @@
         <v>-53.6</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B56">
         <v>47</v>
@@ -1140,9 +2007,9 @@
         <v>-57</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B57">
         <v>55</v>
@@ -1151,9 +2018,9 @@
         <v>-53</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -1162,9 +2029,9 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B60">
         <v>64.5</v>
@@ -1173,9 +2040,9 @@
         <v>-53.25</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B62">
         <v>68.5</v>
@@ -1184,9 +2051,9 @@
         <v>-56</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B63">
         <v>76</v>
@@ -1196,9 +2063,11 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A20:B27">
+    <sortCondition ref="A20:A27"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/lab6/lab6.xlsx
+++ b/lab6/lab6.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
   <si>
     <t>lab 6</t>
   </si>
@@ -60,9 +60,6 @@
     <t xml:space="preserve">min </t>
   </si>
   <si>
-    <t>15.db</t>
-  </si>
-  <si>
     <t>5db</t>
   </si>
   <si>
@@ -91,12 +88,47 @@
   </si>
   <si>
     <t>Vitesse de propagation [$\frac{m}{s}$]</t>
+  </si>
+  <si>
+    <t>Cas</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>SWR</t>
+  </si>
+  <si>
+    <t>Tension [dB]</t>
+  </si>
+  <si>
+    <t>1.5 db</t>
+  </si>
+  <si>
+    <t>Déphasage</t>
+  </si>
+  <si>
+    <t>1.5 dB</t>
+  </si>
+  <si>
+    <t>5 dB</t>
+  </si>
+  <si>
+    <t>Longueur d'onde</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="168" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.0000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -146,8 +178,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -263,6 +310,58 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="9525" cap="rnd" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:shade val="95000"/>
+                    <a:satMod val="105000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.266336454481161"/>
+                  <c:y val="-5.0427696334285455E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="fr-FR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$P$8:$P$20</c:f>
@@ -369,11 +468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1045047008"/>
-        <c:axId val="1045053536"/>
+        <c:axId val="-1293495424"/>
+        <c:axId val="-1293501408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1045047008"/>
+        <c:axId val="-1293495424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,12 +564,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045053536"/>
+        <c:crossAx val="-1293501408"/>
         <c:crossesAt val="-18"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1045053536"/>
+        <c:axId val="-1293501408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -583,7 +682,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1045047008"/>
+        <c:crossAx val="-1293495424"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1108,7 +1207,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Chart1"/>
   <sheetViews>
-    <sheetView zoomScale="142" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1119,7 +1218,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310352" cy="6077218"/>
+    <xdr:ext cx="9299677" cy="6073468"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1465,16 +1564,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:R63"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
@@ -1489,34 +1591,34 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E4">
-        <f>Q8-$Q$7</f>
+        <f t="shared" ref="E4:E16" si="0">Q8-$Q$7</f>
         <v>-0.80000000000000426</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E5">
-        <f>Q9-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-1.1000000000000014</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E6">
-        <f>Q10-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-1.75</v>
       </c>
       <c r="P6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R6" t="s">
         <v>16</v>
-      </c>
-      <c r="R6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E7">
-        <f>Q11-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-2.7000000000000028</v>
       </c>
       <c r="P7" t="s">
@@ -1531,7 +1633,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E8">
-        <f>Q12-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-3.7000000000000028</v>
       </c>
       <c r="P8">
@@ -1547,7 +1649,7 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E9">
-        <f>Q13-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-4.9500000000000028</v>
       </c>
       <c r="P9">
@@ -1557,13 +1659,13 @@
         <v>-41.9</v>
       </c>
       <c r="R9">
-        <f t="shared" ref="R9:R20" si="0">Q9-$Q$7</f>
+        <f t="shared" ref="R9:R20" si="1">Q9-$Q$7</f>
         <v>-1.1000000000000014</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E10">
-        <f>Q14-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-6.2000000000000028</v>
       </c>
       <c r="P10">
@@ -1573,13 +1675,13 @@
         <v>-42.55</v>
       </c>
       <c r="R10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.75</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E11">
-        <f>Q15-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-7.7000000000000028</v>
       </c>
       <c r="P11">
@@ -1589,13 +1691,13 @@
         <v>-43.5</v>
       </c>
       <c r="R11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7000000000000028</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E12">
-        <f>Q16-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-9.9000000000000057</v>
       </c>
       <c r="P12">
@@ -1605,13 +1707,13 @@
         <v>-44.5</v>
       </c>
       <c r="R12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.7000000000000028</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E13">
-        <f>Q17-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-11.600000000000001</v>
       </c>
       <c r="P13">
@@ -1621,13 +1723,13 @@
         <v>-45.75</v>
       </c>
       <c r="R13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.9500000000000028</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E14">
-        <f>Q18-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-13.200000000000003</v>
       </c>
       <c r="P14">
@@ -1637,13 +1739,13 @@
         <v>-47</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.2000000000000028</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E15">
-        <f>Q19-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-14.700000000000003</v>
       </c>
       <c r="P15">
@@ -1653,13 +1755,13 @@
         <v>-48.5</v>
       </c>
       <c r="R15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.7000000000000028</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E16">
-        <f>Q20-$Q$7</f>
+        <f t="shared" si="0"/>
         <v>-15.900000000000006</v>
       </c>
       <c r="P16">
@@ -1669,7 +1771,7 @@
         <v>-50.7</v>
       </c>
       <c r="R16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.9000000000000057</v>
       </c>
     </row>
@@ -1681,7 +1783,7 @@
         <v>-52.4</v>
       </c>
       <c r="R17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-11.600000000000001</v>
       </c>
     </row>
@@ -1696,19 +1798,19 @@
         <v>-54</v>
       </c>
       <c r="R18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-13.200000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>21</v>
       </c>
       <c r="F19" t="s">
         <v>3</v>
@@ -1720,7 +1822,7 @@
         <v>-55.5</v>
       </c>
       <c r="R19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-14.700000000000003</v>
       </c>
     </row>
@@ -1738,7 +1840,7 @@
         <v>-56.7</v>
       </c>
       <c r="R20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-15.900000000000006</v>
       </c>
     </row>
@@ -1746,13 +1848,13 @@
       <c r="A21">
         <v>46</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <f>2*(A21-A20)*10^(-3)</f>
         <v>0.02</v>
       </c>
       <c r="C21">
-        <f>10.1</f>
-        <v>10.1</v>
+        <f>10.7*10^9*B21</f>
+        <v>214000000</v>
       </c>
       <c r="F21">
         <v>-56</v>
@@ -1763,8 +1865,12 @@
         <v>56</v>
       </c>
       <c r="B22">
-        <f t="shared" ref="B22:B27" si="1">2*(A22-A21)*10^(-3)</f>
+        <f t="shared" ref="B22:B27" si="2">2*(A22-A21)*10^(-3)</f>
         <v>0.02</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:C27" si="3">10.7*10^9*B22</f>
+        <v>214000000</v>
       </c>
       <c r="F22">
         <v>-58</v>
@@ -1775,8 +1881,12 @@
         <v>66</v>
       </c>
       <c r="B23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
+        <v>214000000</v>
       </c>
       <c r="F23">
         <v>-57</v>
@@ -1787,8 +1897,16 @@
         <v>76</v>
       </c>
       <c r="B24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.02</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
+        <v>214000000</v>
+      </c>
+      <c r="E24">
+        <f>AVERAGE(C21:C27)</f>
+        <v>219502857.14285713</v>
       </c>
       <c r="F24">
         <v>-55.5</v>
@@ -1799,8 +1917,12 @@
         <v>87</v>
       </c>
       <c r="B25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="3"/>
+        <v>235400000</v>
       </c>
       <c r="F25">
         <v>-59.5</v>
@@ -1811,8 +1933,12 @@
         <v>97.5</v>
       </c>
       <c r="B26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="3"/>
+        <v>224700000</v>
       </c>
       <c r="F26">
         <v>-57</v>
@@ -1823,8 +1949,18 @@
         <v>107.8</v>
       </c>
       <c r="B27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0599999999999993E-2</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="3"/>
+        <v>220419999.99999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <f>AVERAGE(B21:B27)</f>
+        <v>2.0514285714285714E-2</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -1837,6 +1973,19 @@
       <c r="C30" t="s">
         <v>3</v>
       </c>
+      <c r="I30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" t="s">
+        <v>25</v>
+      </c>
+      <c r="M30" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1848,6 +1997,22 @@
       <c r="C31">
         <v>-53.5</v>
       </c>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <v>39</v>
+      </c>
+      <c r="L31">
+        <v>-53.5</v>
+      </c>
+      <c r="M31" s="5">
+        <f>L31-L32</f>
+        <v>0.89999999999999858</v>
+      </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -1859,8 +2024,41 @@
       <c r="C32">
         <v>-54.4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="6"/>
+      <c r="J32" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32">
+        <v>44</v>
+      </c>
+      <c r="L32">
+        <v>-54.4</v>
+      </c>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I33" s="6">
+        <v>2</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33">
+        <v>48.2</v>
+      </c>
+      <c r="L33">
+        <v>-53</v>
+      </c>
+      <c r="M33" s="5">
+        <f t="shared" ref="M33" si="4">L33-L34</f>
+        <v>-0.10000000000000142</v>
+      </c>
+      <c r="N33">
+        <f>AVERAGE(M31:M36)</f>
+        <v>1.1333333333333329</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1879,8 +2077,19 @@
       <c r="G34">
         <v>-52.9</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="6"/>
+      <c r="J34" t="s">
+        <v>23</v>
+      </c>
+      <c r="K34">
+        <v>54</v>
+      </c>
+      <c r="L34">
+        <v>-52.9</v>
+      </c>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1899,18 +2108,75 @@
       <c r="G35">
         <v>-55.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="6">
+        <v>3</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35">
+        <v>60</v>
+      </c>
+      <c r="L35">
+        <v>-52.9</v>
+      </c>
+      <c r="M35" s="5">
+        <f t="shared" ref="M35" si="5">L35-L36</f>
+        <v>2.6000000000000014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="I36" s="6"/>
+      <c r="J36" t="s">
+        <v>23</v>
+      </c>
+      <c r="K36">
+        <v>65.7</v>
+      </c>
+      <c r="L36">
+        <v>-55.5</v>
+      </c>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>25</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -1920,8 +2186,35 @@
       <c r="C40">
         <v>-57.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D40" s="6">
+        <f>C41-C40</f>
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="E40" s="7">
+        <f>((((B40-A22)*10^(-3))/D28)*720-180)</f>
+        <v>-74.707520891364894</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40">
+        <v>59</v>
+      </c>
+      <c r="I40">
+        <v>-57.2</v>
+      </c>
+      <c r="J40" s="6">
+        <f>I41-I40</f>
+        <v>6.1000000000000014</v>
+      </c>
+      <c r="K40" s="7">
+        <v>-4.5125348189415027</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1931,13 +2224,60 @@
       <c r="C41">
         <v>-51.1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I41">
+        <v>-51.1</v>
+      </c>
+      <c r="J41" s="6"/>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F42" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42">
+        <v>38</v>
+      </c>
+      <c r="I42">
+        <v>-56</v>
+      </c>
+      <c r="J42" s="6">
+        <f>I43-I42</f>
+        <v>2.75</v>
+      </c>
+      <c r="K42" s="7">
+        <v>-30.584958217270199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="F43" s="6"/>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
+      <c r="H43">
+        <v>56</v>
+      </c>
+      <c r="I43">
+        <v>-53.25</v>
+      </c>
+      <c r="J43" s="6"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1947,8 +2287,16 @@
       <c r="C44">
         <v>-56</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D44" s="6">
+        <f>C45-C44</f>
+        <v>2.75</v>
+      </c>
+      <c r="E44" s="7">
+        <f>((((B44-A20)*10^(-3))/D28)*720-180)</f>
+        <v>-109.8050139275766</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1958,114 +2306,261 @@
       <c r="C45">
         <v>-53.25</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D45" s="6"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G46" s="2">
+        <f>(((B40-A22)*10^(-3)))</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <f>(D40-1)/(D40+1)</f>
+        <v>0.71830985915492962</v>
+      </c>
+      <c r="G47" s="3">
+        <f>(((B44-A20)*10^(-3)))</f>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <f>(D44-1)/(D44+1)</f>
+        <v>0.46666666666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>25</v>
+      </c>
+      <c r="E52" t="s">
+        <v>24</v>
+      </c>
+      <c r="F52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>1</v>
+      </c>
+      <c r="B53" t="s">
         <v>5</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>36</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-56</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="E53" s="5">
+        <f>D54-D53</f>
+        <v>2.3999999999999986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="B54" t="s">
         <v>8</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>44</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>-53.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="E54" s="5"/>
+      <c r="H54">
+        <f>AVERAGE(E53:E60)</f>
+        <v>2.9124999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>2</v>
+      </c>
+      <c r="B55" t="s">
         <v>5</v>
       </c>
-      <c r="B56">
+      <c r="C55">
         <v>47</v>
       </c>
+      <c r="D55">
+        <v>-57</v>
+      </c>
+      <c r="E55" s="5">
+        <f>D56-D55</f>
+        <v>4</v>
+      </c>
+      <c r="F55" s="5">
+        <f>2*(C55-C53)*10^(-3)</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G55">
+        <f>((((C55-A21)*10^(-3))/D28)*720-180)</f>
+        <v>-144.90250696378831</v>
+      </c>
+      <c r="H55">
+        <f>AVERAGE(F55:F60)</f>
+        <v>2.1666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="6"/>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
       <c r="C56">
-        <v>-57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <v>-53</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>3</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>58</v>
+      </c>
+      <c r="D57">
+        <v>-56</v>
+      </c>
+      <c r="E57" s="5">
+        <f>D58-D57</f>
+        <v>2.75</v>
+      </c>
+      <c r="F57" s="5">
+        <f>2*(C57-C55)*10^(-3)</f>
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="G57">
+        <f>((((C57-A22)*10^(-3))/D28)*720-180)</f>
+        <v>-109.8050139275766</v>
+      </c>
+      <c r="H57">
+        <f>AVERAGE(G55:G59)</f>
+        <v>-115.65459610027854</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="6"/>
+      <c r="B58" t="s">
         <v>8</v>
       </c>
-      <c r="B57">
-        <v>55</v>
-      </c>
-      <c r="C57">
-        <v>-53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="C58">
+        <v>64.5</v>
+      </c>
+      <c r="D58">
+        <v>-53.25</v>
+      </c>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
         <v>5</v>
       </c>
-      <c r="B59">
-        <v>58</v>
-      </c>
       <c r="C59">
+        <v>68.5</v>
+      </c>
+      <c r="D59">
         <v>-56</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+      <c r="E59" s="5">
+        <f>D60-D59</f>
+        <v>2.5</v>
+      </c>
+      <c r="F59" s="5">
+        <f>2*(C59-C57)*10^(-3)</f>
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="G59">
+        <f>((((C59-A23)*10^(-3))/D28)*720-180)</f>
+        <v>-92.256267409470752</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="6"/>
+      <c r="B60" t="s">
         <v>8</v>
       </c>
-      <c r="B60">
-        <v>64.5</v>
-      </c>
       <c r="C60">
-        <v>-53.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62">
-        <v>68.5</v>
-      </c>
-      <c r="C62">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B63">
         <v>76</v>
       </c>
-      <c r="C63">
+      <c r="D60">
         <v>-53.5</v>
       </c>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
     </row>
   </sheetData>
   <sortState ref="A20:B27">
     <sortCondition ref="A20:A27"/>
   </sortState>
+  <mergeCells count="30">
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="M35:M36"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
